--- a/Online/项目文档/接口API-赵宏程.xlsx
+++ b/Online/项目文档/接口API-赵宏程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统后台账户" sheetId="1" r:id="rId1"/>
@@ -1441,14 +1441,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,25 +1486,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1491,15 +1499,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,7 +1547,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,55 +1578,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,19 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,91 +1664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,13 +1682,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,13 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,7 +1742,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,11 +2270,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2303,30 +2340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2344,24 +2357,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,10 +2373,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2385,133 +2385,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3430,8 +3430,8 @@
   <sheetPr/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4832,7 +4832,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B47" r:id="rId1" display="http://47.100.225.183:9000/goods/insert" tooltip="http://47.95.218.13/goods/insert"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://47.100.225.183:9000/goods/find" tooltip="http://47.95.218.13/goods/find"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://47.100.225.183:9000/goods/find" tooltip="http://47.100.225.183:9000/goods/find"/>
     <hyperlink ref="B76" r:id="rId3" display="http://47.100.225.183:9000/goods/delete" tooltip="http://47.95.218.13/goods/delete"/>
     <hyperlink ref="B91" r:id="rId4" display="http://47.100.225.183:9000/goods/resume" tooltip="http://47.95.218.13/goods/resume"/>
     <hyperlink ref="B108" r:id="rId5" display="http://47.100.225.183:9000/goods/updata" tooltip="http://47.95.218.13/goods/updata"/>
@@ -6471,8 +6471,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/Online/项目文档/接口API-赵宏程.xlsx
+++ b/Online/项目文档/接口API-赵宏程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统后台账户" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="212">
   <si>
     <t xml:space="preserve">   注：接口参数前带 * 为必选参数</t>
   </si>
@@ -294,6 +294,21 @@
     {"code": " 1 ", "msg": "查询成功，返回数据" }</t>
   </si>
   <si>
+    <t>商品数据统计接口</t>
+  </si>
+  <si>
+    <t>http://47.100.225.183:9000/goods/num</t>
+  </si>
+  <si>
+    <t>全部选项为默认值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     axios.get('http://47.100.225.183:9000/goods/num')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {"count": 42}</t>
+  </si>
+  <si>
     <t>商品名模糊查询接口</t>
   </si>
   <si>
@@ -1183,6 +1198,48 @@
     </r>
   </si>
   <si>
+    <t>用户信息条件查询数量统计接口</t>
+  </si>
+  <si>
+    <t>http://47.100.225.183:9000/user/num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   全部选项为默认值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   用户昵称，传入类型：String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   用户注册手机号，传入类型：Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   用户年龄，传入类型：Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   用户ID，传入类型：Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  查询大于多少的年龄的账户,传值类型:Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  查询小于多少的年龄的账户,传值类型:Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  按注册时间排序（ 1 为最初注册排列， -1为 从最近注册排列，默认为-1）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   用户状态（0为封号，1为正常），传入类型：Number，默认为1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   查询多少条数据，传入类型：Number，默认为15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   从第多少条开始查询数据，传入类型：Number，默认为0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   axios.get('http://47.100.225.183:9000/user/num')</t>
+  </si>
+  <si>
     <t>用户模糊查询接口</t>
   </si>
   <si>
@@ -1368,9 +1425,6 @@
     <t xml:space="preserve">     axios.get('http://47.100.225.183:9000/banner/find?start=4')</t>
   </si>
   <si>
-    <t>全部选项为默认值</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1395,12 +1449,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1434,10 +1488,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1447,32 +1521,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,14 +1559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1504,6 +1570,29 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1524,22 +1613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,14 +1628,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1569,16 +1635,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1591,12 +1658,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1646,7 +1707,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,13 +1761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,19 +1773,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,37 +1851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,85 +1869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2270,9 +2331,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2307,6 +2379,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2319,23 +2406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2354,17 +2426,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2373,10 +2434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2385,137 +2446,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2594,6 +2655,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2657,6 +2721,36 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2738,7 +2832,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3080,38 +3174,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" ht="15.15" spans="1:6">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:6">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="85" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="9"/>
@@ -3120,7 +3214,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:6">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3132,31 +3226,31 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:8">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="H6" s="75"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="56"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:6">
       <c r="A8" s="10" t="s">
@@ -3181,7 +3275,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="76"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
@@ -3236,22 +3330,22 @@
       <c r="F15" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:6">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
     </row>
     <row r="20" ht="24" customHeight="1" spans="1:6">
       <c r="A20" s="8" t="s">
@@ -3266,7 +3360,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:6">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -3278,66 +3372,66 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" ht="17.4" spans="1:6">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
     </row>
     <row r="23" ht="17.4" spans="1:6">
-      <c r="A23" s="33"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" ht="18.15" spans="1:6">
-      <c r="A24" s="56"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
     </row>
     <row r="25" ht="149" customHeight="1" spans="1:6">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
     </row>
     <row r="26" ht="24" customHeight="1" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
@@ -3428,10 +3522,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3451,22 +3545,22 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
@@ -3481,7 +3575,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:6">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3493,78 +3587,78 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:6">
-      <c r="A8" s="33"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:6">
-      <c r="A9" s="33"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:6">
-      <c r="A10" s="33"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:6">
-      <c r="A11" s="33"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:6">
       <c r="A12" s="16"/>
@@ -3726,573 +3820,628 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+    </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" ht="26" customHeight="1" spans="1:6">
-      <c r="A30" s="8" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" spans="1:6">
+      <c r="A30" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" s="9" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" ht="17.4" spans="1:6">
-      <c r="A31" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" ht="17.4" spans="1:6">
-      <c r="A32" s="16" t="s">
+    <row r="31" ht="24" customHeight="1" spans="1:6">
+      <c r="A31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B31" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="1:6">
+      <c r="A32" s="34"/>
+      <c r="B32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+    </row>
+    <row r="33" ht="24" customHeight="1" spans="1:6">
+      <c r="A33" s="34"/>
+      <c r="B33" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+    </row>
+    <row r="34" ht="24" customHeight="1" spans="1:6">
+      <c r="A34" s="34"/>
+      <c r="B34" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+    </row>
+    <row r="35" ht="24" customHeight="1" spans="1:6">
+      <c r="A35" s="34"/>
+      <c r="B35" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
+    </row>
+    <row r="36" ht="24" customHeight="1" spans="1:6">
+      <c r="A36" s="34"/>
+      <c r="B36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="1:6">
+      <c r="A37" s="16"/>
+      <c r="B37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" ht="24" customHeight="1" spans="1:6">
+      <c r="A38" s="16"/>
+      <c r="B38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" ht="24" customHeight="1" spans="1:6">
+      <c r="A39" s="16"/>
+      <c r="B39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" ht="24" customHeight="1" spans="1:6">
+      <c r="A40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" ht="104" customHeight="1" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="1:6">
-      <c r="A33" s="20"/>
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="1:6">
-      <c r="A34" s="20"/>
-      <c r="B34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" ht="17.4" spans="1:6">
-      <c r="A35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" ht="17.4" spans="1:6">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="44" ht="15.15"/>
-    <row r="45" ht="15.15" spans="1:6">
-      <c r="A45" s="2" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" ht="26" customHeight="1" spans="1:6">
+      <c r="A51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" ht="15.15" spans="1:6">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="1:6">
-      <c r="A47" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" ht="17.4" spans="1:6">
+      <c r="A52" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" ht="17.4" spans="1:6">
+      <c r="A53" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" ht="17.4" spans="1:6">
-      <c r="A48" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" ht="17.4" spans="1:6">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="59" t="s">
+      <c r="C53" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
-    </row>
-    <row r="50" ht="17.4" spans="1:6">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="61"/>
-    </row>
-    <row r="51" ht="17.4" spans="1:6">
-      <c r="A51" s="33"/>
-      <c r="B51" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-    </row>
-    <row r="52" ht="17.4" spans="1:6">
-      <c r="A52" s="33"/>
-      <c r="B52" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55"/>
-    </row>
-    <row r="53" ht="17.4" spans="1:6">
-      <c r="A53" s="33"/>
-      <c r="B53" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
-    </row>
-    <row r="54" ht="17.4" spans="1:6">
-      <c r="A54" s="16"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="66"/>
+    </row>
+    <row r="54" ht="24" customHeight="1" spans="1:6">
+      <c r="A54" s="20"/>
       <c r="B54" s="9" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" ht="17.4" spans="1:6">
-      <c r="A55" s="16"/>
+    <row r="55" ht="24" customHeight="1" spans="1:6">
+      <c r="A55" s="20"/>
       <c r="B55" s="9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="19"/>
     </row>
     <row r="56" ht="17.4" spans="1:6">
-      <c r="A56" s="16"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" ht="17.4" spans="1:6">
+      <c r="A57" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="65" ht="15.15"/>
+    <row r="66" ht="15.15" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" ht="15.15" spans="1:6">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" ht="24" customHeight="1" spans="1:6">
+      <c r="A68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" ht="17.4" spans="1:6">
+      <c r="A69" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" ht="17.4" spans="1:6">
+      <c r="A70" s="29"/>
+      <c r="B70" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="72"/>
+    </row>
+    <row r="71" ht="17.4" spans="1:6">
+      <c r="A71" s="29"/>
+      <c r="B71" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="72"/>
+    </row>
+    <row r="72" ht="17.4" spans="1:6">
+      <c r="A72" s="34"/>
+      <c r="B72" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="66"/>
+    </row>
+    <row r="73" ht="17.4" spans="1:6">
+      <c r="A73" s="34"/>
+      <c r="B73" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="66"/>
+    </row>
+    <row r="74" ht="17.4" spans="1:6">
+      <c r="A74" s="34"/>
+      <c r="B74" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="66"/>
+    </row>
+    <row r="75" ht="17.4" spans="1:6">
+      <c r="A75" s="16"/>
+      <c r="B75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" ht="17.4" spans="1:6">
+      <c r="A76" s="16"/>
+      <c r="B76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" ht="17.4" spans="1:6">
+      <c r="A77" s="16"/>
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" ht="17.4" spans="1:6">
-      <c r="A57" s="16"/>
-      <c r="B57" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" ht="17.4" spans="1:6">
-      <c r="A58" s="16"/>
-      <c r="B58" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" ht="17.4" spans="1:6">
-      <c r="A59" s="16"/>
-      <c r="B59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" ht="17.4" spans="1:6">
-      <c r="A60" s="16"/>
-      <c r="B60" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="C77" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" ht="17.4" spans="1:6">
-      <c r="A61" s="16"/>
-      <c r="B61" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" ht="18.15" spans="1:6">
-      <c r="A62" s="56"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="63"/>
-    </row>
-    <row r="63" ht="17.4" spans="1:6">
-      <c r="A63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" ht="84" customHeight="1" spans="1:6">
-      <c r="A64" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="73" ht="15.15"/>
-    <row r="74" ht="15.15" spans="1:6">
-      <c r="A74" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" ht="15.15" spans="1:6">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" ht="25" customHeight="1" spans="1:6">
-      <c r="A76" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" ht="17.4" spans="1:6">
-      <c r="A77" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" ht="17.4" spans="1:6">
       <c r="A78" s="16"/>
       <c r="B78" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" ht="18.15" spans="1:6">
-      <c r="A79" s="56"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="58"/>
+    <row r="79" ht="17.4" spans="1:6">
+      <c r="A79" s="16"/>
+      <c r="B79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
     </row>
     <row r="80" ht="17.4" spans="1:6">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="16"/>
+      <c r="B80" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="19"/>
+    </row>
+    <row r="81" ht="17.4" spans="1:6">
+      <c r="A81" s="16"/>
+      <c r="B81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" ht="17.4" spans="1:6">
+      <c r="A82" s="16"/>
+      <c r="B82" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="19"/>
+    </row>
+    <row r="83" ht="18.15" spans="1:6">
+      <c r="A83" s="67"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="74"/>
+    </row>
+    <row r="84" ht="17.4" spans="1:6">
+      <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" ht="99" customHeight="1" spans="1:6">
-      <c r="A81" s="14" t="s">
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" ht="84" customHeight="1" spans="1:6">
+      <c r="A85" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -4306,432 +4455,605 @@
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" ht="15.15"/>
-    <row r="89" ht="15.15" spans="1:6">
-      <c r="A89" s="2" t="s">
+    <row r="88" spans="1:6">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+    </row>
+    <row r="94" ht="15.15"/>
+    <row r="95" ht="15.15" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" ht="15.15" spans="1:6">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" ht="25" customHeight="1" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" ht="17.4" spans="1:6">
+      <c r="A98" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" ht="17.4" spans="1:6">
+      <c r="A99" s="16"/>
+      <c r="B99" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" ht="15.15" spans="1:6">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" ht="24" customHeight="1" spans="1:6">
-      <c r="A91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="9" t="s">
+      <c r="C99" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" ht="17.4" spans="1:6">
-      <c r="A92" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" ht="18.15" spans="1:6">
+      <c r="A100" s="67"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" ht="17.4" spans="1:6">
-      <c r="A93" s="16"/>
-      <c r="B93" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="19"/>
-    </row>
-    <row r="94" ht="18.15" spans="1:6">
-      <c r="A94" s="56"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="57" t="s">
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="69"/>
+    </row>
+    <row r="101" ht="17.4" spans="1:6">
+      <c r="A101" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="13"/>
+    </row>
+    <row r="102" ht="99" customHeight="1" spans="1:6">
+      <c r="A102" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="58"/>
-    </row>
-    <row r="95" ht="17.4" spans="1:6">
-      <c r="A95" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-    </row>
-    <row r="96" ht="104" customHeight="1" spans="1:6">
-      <c r="A96" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
-    <row r="105" ht="15.15"/>
-    <row r="106" ht="15.15" spans="1:6">
-      <c r="A106" s="2" t="s">
+    <row r="103" spans="1:6">
+      <c r="A103" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+    </row>
+    <row r="109" ht="15.15"/>
+    <row r="110" ht="15.15" spans="1:6">
+      <c r="A110" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" ht="15.15" spans="1:6">
-      <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" ht="22" customHeight="1" spans="1:6">
-      <c r="A108" s="10" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" ht="15.15" spans="1:6">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" ht="24" customHeight="1" spans="1:6">
+      <c r="A112" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" ht="17.4" spans="1:6">
-      <c r="A109" s="26" t="s">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" ht="17.4" spans="1:6">
+      <c r="A113" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="27" t="s">
+      <c r="B113" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-    </row>
-    <row r="110" ht="17.4" spans="1:6">
-      <c r="A110" s="28"/>
-      <c r="B110" s="29" t="s">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" ht="17.4" spans="1:6">
+      <c r="A114" s="16"/>
+      <c r="B114" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" ht="18.15" spans="1:6">
+      <c r="A115" s="67"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="69"/>
+    </row>
+    <row r="116" ht="17.4" spans="1:6">
+      <c r="A116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" ht="104" customHeight="1" spans="1:6">
+      <c r="A117" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+    </row>
+    <row r="126" ht="15.15"/>
+    <row r="127" ht="15.15" spans="1:6">
+      <c r="A127" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" ht="15.15" spans="1:6">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" ht="22" customHeight="1" spans="1:6">
+      <c r="A129" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" ht="17.4" spans="1:6">
+      <c r="A130" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+    </row>
+    <row r="131" ht="17.4" spans="1:6">
+      <c r="A131" s="29"/>
+      <c r="B131" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="72"/>
+    </row>
+    <row r="132" ht="17.4" spans="1:6">
+      <c r="A132" s="29"/>
+      <c r="B132" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="72"/>
+    </row>
+    <row r="133" ht="17.4" spans="1:6">
+      <c r="A133" s="34"/>
+      <c r="B133" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="65"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="66"/>
+    </row>
+    <row r="134" ht="17.4" spans="1:6">
+      <c r="A134" s="34"/>
+      <c r="B134" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="65"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="66"/>
+    </row>
+    <row r="135" ht="17.4" spans="1:6">
+      <c r="A135" s="34"/>
+      <c r="B135" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="66"/>
+    </row>
+    <row r="136" ht="17.4" spans="1:6">
+      <c r="A136" s="16"/>
+      <c r="B136" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="19"/>
+    </row>
+    <row r="137" ht="17.4" spans="1:6">
+      <c r="A137" s="16"/>
+      <c r="B137" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" ht="17.4" spans="1:6">
+      <c r="A138" s="16"/>
+      <c r="B138" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="19"/>
+    </row>
+    <row r="139" ht="17.4" spans="1:6">
+      <c r="A139" s="16"/>
+      <c r="B139" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="19"/>
+    </row>
+    <row r="140" ht="17.4" spans="1:6">
+      <c r="A140" s="16"/>
+      <c r="B140" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="19"/>
+    </row>
+    <row r="141" ht="17.4" spans="1:6">
+      <c r="A141" s="16"/>
+      <c r="B141" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="19"/>
+    </row>
+    <row r="142" ht="17.4" spans="1:6">
+      <c r="A142" s="16"/>
+      <c r="B142" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="19"/>
+    </row>
+    <row r="143" ht="17.4" spans="1:6">
+      <c r="A143" s="16"/>
+      <c r="B143" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="19"/>
+    </row>
+    <row r="144" ht="18.15" spans="1:6">
+      <c r="A144" s="67"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="73"/>
+      <c r="E144" s="73"/>
+      <c r="F144" s="74"/>
+    </row>
+    <row r="145" ht="17.4" spans="1:6">
+      <c r="A145" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="13"/>
+    </row>
+    <row r="146" ht="113" customHeight="1" spans="1:6">
+      <c r="A146" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="61"/>
-    </row>
-    <row r="111" ht="17.4" spans="1:6">
-      <c r="A111" s="28"/>
-      <c r="B111" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="61"/>
-    </row>
-    <row r="112" ht="17.4" spans="1:6">
-      <c r="A112" s="33"/>
-      <c r="B112" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C112" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="55"/>
-    </row>
-    <row r="113" ht="17.4" spans="1:6">
-      <c r="A113" s="33"/>
-      <c r="B113" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="55"/>
-    </row>
-    <row r="114" ht="17.4" spans="1:6">
-      <c r="A114" s="33"/>
-      <c r="B114" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C114" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="55"/>
-    </row>
-    <row r="115" ht="17.4" spans="1:6">
-      <c r="A115" s="16"/>
-      <c r="B115" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="19"/>
-    </row>
-    <row r="116" ht="17.4" spans="1:6">
-      <c r="A116" s="16"/>
-      <c r="B116" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="19"/>
-    </row>
-    <row r="117" ht="17.4" spans="1:6">
-      <c r="A117" s="16"/>
-      <c r="B117" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="19"/>
-    </row>
-    <row r="118" ht="17.4" spans="1:6">
-      <c r="A118" s="16"/>
-      <c r="B118" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="19"/>
-    </row>
-    <row r="119" ht="17.4" spans="1:6">
-      <c r="A119" s="16"/>
-      <c r="B119" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="19"/>
-    </row>
-    <row r="120" ht="17.4" spans="1:6">
-      <c r="A120" s="16"/>
-      <c r="B120" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="19"/>
-    </row>
-    <row r="121" ht="17.4" spans="1:6">
-      <c r="A121" s="16"/>
-      <c r="B121" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="19"/>
-    </row>
-    <row r="122" ht="17.4" spans="1:6">
-      <c r="A122" s="16"/>
-      <c r="B122" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="19"/>
-    </row>
-    <row r="123" ht="18.15" spans="1:6">
-      <c r="A123" s="56"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="63"/>
-    </row>
-    <row r="124" ht="17.4" spans="1:6">
-      <c r="A124" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" ht="113" customHeight="1" spans="1:6">
-      <c r="A125" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="14" t="s">
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
+      <c r="B147" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="114">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -4750,93 +5072,111 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
     <mergeCell ref="C53:F53"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
     <mergeCell ref="C78:F78"/>
     <mergeCell ref="C79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
     <mergeCell ref="C114:F114"/>
     <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C120:F120"/>
-    <mergeCell ref="C121:F121"/>
-    <mergeCell ref="C122:F122"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="C132:F132"/>
+    <mergeCell ref="C133:F133"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="C144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A49:A62"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A110:A123"/>
-    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A70:A83"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="A131:A144"/>
+    <mergeCell ref="A147:A152"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="B21:F26"/>
-    <mergeCell ref="A28:F29"/>
-    <mergeCell ref="B37:F42"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="B82:F87"/>
-    <mergeCell ref="A106:F107"/>
-    <mergeCell ref="B65:F70"/>
-    <mergeCell ref="A74:F75"/>
-    <mergeCell ref="A89:F90"/>
-    <mergeCell ref="B97:F102"/>
-    <mergeCell ref="B126:F131"/>
+    <mergeCell ref="A27:F28"/>
+    <mergeCell ref="A49:F50"/>
+    <mergeCell ref="B58:F63"/>
+    <mergeCell ref="A66:F67"/>
+    <mergeCell ref="B103:F108"/>
+    <mergeCell ref="A127:F128"/>
+    <mergeCell ref="B86:F91"/>
+    <mergeCell ref="A95:F96"/>
+    <mergeCell ref="A110:F111"/>
+    <mergeCell ref="B118:F123"/>
+    <mergeCell ref="B147:F152"/>
+    <mergeCell ref="B42:F47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1" display="http://47.100.225.183:9000/goods/insert" tooltip="http://47.95.218.13/goods/insert"/>
+    <hyperlink ref="B68" r:id="rId1" display="http://47.100.225.183:9000/goods/insert" tooltip="http://47.95.218.13/goods/insert"/>
     <hyperlink ref="B4" r:id="rId2" display="http://47.100.225.183:9000/goods/find" tooltip="http://47.100.225.183:9000/goods/find"/>
-    <hyperlink ref="B76" r:id="rId3" display="http://47.100.225.183:9000/goods/delete" tooltip="http://47.95.218.13/goods/delete"/>
-    <hyperlink ref="B91" r:id="rId4" display="http://47.100.225.183:9000/goods/resume" tooltip="http://47.95.218.13/goods/resume"/>
-    <hyperlink ref="B108" r:id="rId5" display="http://47.100.225.183:9000/goods/updata" tooltip="http://47.95.218.13/goods/updata"/>
-    <hyperlink ref="B30" r:id="rId6" display="http://47.100.225.183:9000/goods/gsearch" tooltip="http://47.95.218.13/goods/gsearch"/>
+    <hyperlink ref="B97" r:id="rId3" display="http://47.100.225.183:9000/goods/delete" tooltip="http://47.100.225.183:9000/goods/delete"/>
+    <hyperlink ref="B112" r:id="rId4" display="http://47.100.225.183:9000/goods/resume" tooltip="http://47.95.218.13/goods/resume"/>
+    <hyperlink ref="B129" r:id="rId5" display="http://47.100.225.183:9000/goods/updata" tooltip="http://47.95.218.13/goods/updata"/>
+    <hyperlink ref="B51" r:id="rId6" display="http://47.100.225.183:9000/goods/gsearch" tooltip="http://47.95.218.13/goods/gsearch"/>
+    <hyperlink ref="B29" r:id="rId7" display="http://47.100.225.183:9000/goods/num" tooltip="http://47.100.225.183:9000/goods/num"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4846,10 +5186,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4870,7 +5210,7 @@
     </row>
     <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4891,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4899,72 +5239,72 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:6">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" ht="17.4" spans="1:6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" ht="17.4" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" ht="17.4" spans="1:6">
-      <c r="A8" s="33"/>
-      <c r="B8" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" ht="17.4" spans="1:6">
-      <c r="A9" s="33"/>
-      <c r="B9" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" ht="17.4" spans="1:6">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -4973,10 +5313,10 @@
     <row r="11" ht="17.4" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -4986,20 +5326,20 @@
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" ht="17.4" spans="1:6">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -5011,7 +5351,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -5061,7 +5401,7 @@
     <row r="21" ht="15.15"/>
     <row r="22" ht="15.15" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5082,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -5090,40 +5430,40 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" ht="28" customHeight="1" spans="1:6">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" ht="17.4" spans="1:6">
-      <c r="A26" s="33"/>
-      <c r="B26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" ht="17.4" spans="1:6">
-      <c r="A27" s="33"/>
-      <c r="B27" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" ht="17.4" spans="1:6">
       <c r="A28" s="10" t="s">
@@ -5142,7 +5482,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -5154,7 +5494,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -5202,29 +5542,29 @@
       <c r="F35" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" ht="28" customHeight="1" spans="1:6">
       <c r="A40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -5232,11 +5572,11 @@
       <c r="F40" s="9"/>
     </row>
     <row r="41" ht="28" customHeight="1" spans="1:6">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -5244,78 +5584,78 @@
       <c r="F41" s="9"/>
     </row>
     <row r="42" ht="17.4" spans="1:6">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
+      <c r="C42" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" ht="17.4" spans="1:6">
-      <c r="A43" s="33"/>
-      <c r="B43" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" ht="17.4" spans="1:6">
-      <c r="A44" s="33"/>
-      <c r="B44" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" ht="17.4" spans="1:6">
-      <c r="A45" s="33"/>
-      <c r="B45" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
     </row>
     <row r="46" ht="17.4" spans="1:6">
-      <c r="A46" s="33"/>
-      <c r="B46" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" ht="17.4" spans="1:6">
-      <c r="A47" s="33"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="C47" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" ht="17.4" spans="1:6">
       <c r="A48" s="16"/>
@@ -5323,7 +5663,7 @@
         <v>53</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -5335,7 +5675,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -5344,10 +5684,10 @@
     <row r="50" ht="17.4" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -5359,7 +5699,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -5371,7 +5711,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -5394,7 +5734,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -5453,897 +5793,1151 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" ht="28" customHeight="1" spans="1:6">
-      <c r="A64" s="10" t="s">
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1" spans="1:6">
+      <c r="A62" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
+    </row>
+    <row r="63" customFormat="1" spans="1:6">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
+    </row>
+    <row r="64" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A64" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" ht="28" customHeight="1" spans="1:6">
-      <c r="A65" s="26" t="s">
+    <row r="65" customFormat="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A65" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" ht="28" customHeight="1" spans="1:6">
-      <c r="A66" s="33" t="s">
+    <row r="66" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A66" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="55"/>
-    </row>
-    <row r="67" ht="17.4" spans="1:6">
-      <c r="A67" s="10" t="s">
+      <c r="B66" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="47"/>
+    </row>
+    <row r="67" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A67" s="48"/>
+      <c r="B67" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
+    </row>
+    <row r="68" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A68" s="48"/>
+      <c r="B68" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A69" s="48"/>
+      <c r="B69" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A70" s="48"/>
+      <c r="B70" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A71" s="48"/>
+      <c r="B71" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A72" s="53"/>
+      <c r="B72" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="57"/>
+    </row>
+    <row r="73" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A73" s="53"/>
+      <c r="B73" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="57"/>
+    </row>
+    <row r="74" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A74" s="53"/>
+      <c r="B74" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
+    </row>
+    <row r="75" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A75" s="53"/>
+      <c r="B75" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="57"/>
+    </row>
+    <row r="76" s="26" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A76" s="53"/>
+      <c r="B76" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+    </row>
+    <row r="77" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" ht="17.4" spans="1:6">
-      <c r="A68" s="14" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" customFormat="1" ht="17.4" spans="1:6">
+      <c r="A78" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B78" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" customFormat="1" spans="1:6">
+      <c r="A79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-    </row>
-    <row r="76" ht="15.15"/>
-    <row r="77" ht="15.15" spans="1:6">
-      <c r="A77" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" ht="15.15" spans="1:6">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" ht="28" customHeight="1" spans="1:6">
-      <c r="A79" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" ht="28" customHeight="1" spans="1:6">
-      <c r="A80" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" ht="17.4" spans="1:6">
-      <c r="A81" s="16"/>
-      <c r="B81" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
-    </row>
-    <row r="82" ht="18.15" spans="1:6">
-      <c r="A82" s="56"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-    </row>
-    <row r="83" ht="17.4" spans="1:6">
-      <c r="A83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-    </row>
-    <row r="84" ht="17.4" spans="1:6">
-      <c r="A84" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" customFormat="1" spans="1:6">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" customFormat="1" spans="1:6">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" customFormat="1" spans="1:6">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:6">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+    </row>
+    <row r="84" customFormat="1" spans="1:6">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="14" t="s">
+    <row r="85" customFormat="1"/>
+    <row r="87" spans="1:6">
+      <c r="A87" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="60"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="61"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="63"/>
+    </row>
+    <row r="89" ht="28" customHeight="1" spans="1:6">
+      <c r="A89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" ht="28" customHeight="1" spans="1:6">
+      <c r="A90" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" ht="28" customHeight="1" spans="1:6">
+      <c r="A91" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="66"/>
+    </row>
+    <row r="92" ht="17.4" spans="1:6">
+      <c r="A92" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="13"/>
+    </row>
+    <row r="93" ht="17.4" spans="1:6">
+      <c r="A93" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-    </row>
-    <row r="91" ht="15.15"/>
-    <row r="92" ht="15.15" spans="1:6">
-      <c r="A92" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" ht="15.15" spans="1:6">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" ht="28" customHeight="1" spans="1:6">
-      <c r="A94" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" ht="28" customHeight="1" spans="1:6">
-      <c r="A95" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" ht="17.4" spans="1:6">
-      <c r="A96" s="16"/>
-      <c r="B96" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="19"/>
-    </row>
-    <row r="97" ht="18.15" spans="1:6">
-      <c r="A97" s="56"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="58"/>
-    </row>
-    <row r="98" ht="17.4" spans="1:6">
-      <c r="A98" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-    </row>
-    <row r="99" ht="17.4" spans="1:6">
-      <c r="A99" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="B94" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="14" t="s">
+    <row r="101" ht="15.15"/>
+    <row r="102" ht="15.15" spans="1:6">
+      <c r="A102" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" ht="15.15" spans="1:6">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" ht="28" customHeight="1" spans="1:6">
+      <c r="A104" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" ht="28" customHeight="1" spans="1:6">
+      <c r="A105" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" ht="17.4" spans="1:6">
+      <c r="A106" s="16"/>
+      <c r="B106" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" ht="18.15" spans="1:6">
+      <c r="A107" s="67"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="68"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="69"/>
+    </row>
+    <row r="108" ht="17.4" spans="1:6">
+      <c r="A108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" ht="17.4" spans="1:6">
+      <c r="A109" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-    </row>
-    <row r="107" ht="15.15"/>
-    <row r="108" ht="15.15" spans="1:6">
-      <c r="A108" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" ht="15.15" spans="1:6">
-      <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" ht="28" customHeight="1" spans="1:6">
-      <c r="A110" s="10" t="s">
+      <c r="B110" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+    </row>
+    <row r="116" ht="15.15"/>
+    <row r="117" ht="15.15" spans="1:6">
+      <c r="A117" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" ht="15.15" spans="1:6">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" ht="28" customHeight="1" spans="1:6">
+      <c r="A119" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111" ht="28" customHeight="1" spans="1:6">
-      <c r="A111" s="26" t="s">
+      <c r="B119" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+    </row>
+    <row r="120" ht="28" customHeight="1" spans="1:6">
+      <c r="A120" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-    </row>
-    <row r="112" ht="17.4" spans="1:6">
-      <c r="A112" s="28"/>
-      <c r="B112" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="61"/>
-    </row>
-    <row r="113" ht="17.4" spans="1:6">
-      <c r="A113" s="28"/>
-      <c r="B113" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="61"/>
-    </row>
-    <row r="114" ht="17.4" spans="1:6">
-      <c r="A114" s="33"/>
-      <c r="B114" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C114" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="55"/>
-    </row>
-    <row r="115" ht="17.4" spans="1:6">
-      <c r="A115" s="33"/>
-      <c r="B115" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" s="54"/>
-      <c r="E115" s="54"/>
-      <c r="F115" s="55"/>
-    </row>
-    <row r="116" ht="17.4" spans="1:6">
-      <c r="A116" s="33"/>
-      <c r="B116" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C116" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="55"/>
-    </row>
-    <row r="117" ht="18.15" spans="1:6">
-      <c r="A117" s="56"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="63"/>
-    </row>
-    <row r="118" ht="17.4" spans="1:6">
-      <c r="A118" s="10" t="s">
+      <c r="B120" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" ht="17.4" spans="1:6">
+      <c r="A121" s="16"/>
+      <c r="B121" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="19"/>
+    </row>
+    <row r="122" ht="18.15" spans="1:6">
+      <c r="A122" s="67"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="69"/>
+    </row>
+    <row r="123" ht="17.4" spans="1:6">
+      <c r="A123" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B123" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="13"/>
-    </row>
-    <row r="119" ht="17.4" spans="1:6">
-      <c r="A119" s="14" t="s">
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" ht="17.4" spans="1:6">
+      <c r="A124" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="15" t="s">
+        <v>184</v>
+      </c>
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
+      <c r="A125" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
     </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+    </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B128" s="64"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="64"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-    </row>
-    <row r="130" ht="28" customHeight="1" spans="1:6">
-      <c r="A130" s="8" t="s">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+    </row>
+    <row r="132" ht="15.15"/>
+    <row r="133" ht="15.15" spans="1:6">
+      <c r="A133" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" ht="15.15" spans="1:6">
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" ht="28" customHeight="1" spans="1:6">
+      <c r="A135" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-    </row>
-    <row r="131" ht="28" customHeight="1" spans="1:6">
-      <c r="A131" s="26" t="s">
+      <c r="B135" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" ht="28" customHeight="1" spans="1:6">
+      <c r="A136" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B136" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" s="28"/>
+      <c r="D136" s="28"/>
+      <c r="E136" s="28"/>
+      <c r="F136" s="28"/>
+    </row>
+    <row r="137" ht="17.4" spans="1:6">
+      <c r="A137" s="29"/>
+      <c r="B137" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="72"/>
+    </row>
+    <row r="138" ht="17.4" spans="1:6">
+      <c r="A138" s="29"/>
+      <c r="B138" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="72"/>
+    </row>
+    <row r="139" ht="17.4" spans="1:6">
+      <c r="A139" s="34"/>
+      <c r="B139" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="66"/>
+    </row>
+    <row r="140" ht="17.4" spans="1:6">
+      <c r="A140" s="34"/>
+      <c r="B140" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="66"/>
+    </row>
+    <row r="141" ht="17.4" spans="1:6">
+      <c r="A141" s="34"/>
+      <c r="B141" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="66"/>
+    </row>
+    <row r="142" ht="18.15" spans="1:6">
+      <c r="A142" s="67"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="73"/>
+      <c r="E142" s="73"/>
+      <c r="F142" s="74"/>
+    </row>
+    <row r="143" ht="17.4" spans="1:6">
+      <c r="A143" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="13"/>
+    </row>
+    <row r="144" ht="17.4" spans="1:6">
+      <c r="A144" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="75"/>
+      <c r="C153" s="75"/>
+      <c r="D153" s="75"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="75"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="75"/>
+      <c r="B154" s="76"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="76"/>
+    </row>
+    <row r="155" ht="28" customHeight="1" spans="1:6">
+      <c r="A155" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" ht="28" customHeight="1" spans="1:6">
+      <c r="A156" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-    </row>
-    <row r="132" ht="17.4" spans="1:6">
-      <c r="A132" s="43" t="s">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" ht="17.4" spans="1:6">
+      <c r="A157" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C132" s="66" t="s">
+      <c r="B157" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="67"/>
-    </row>
-    <row r="133" ht="17.4" spans="1:6">
-      <c r="A133" s="33"/>
-      <c r="B133" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C133" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="69"/>
-    </row>
-    <row r="134" ht="18.15" spans="1:6">
-      <c r="A134" s="56"/>
-      <c r="B134" s="25" t="s">
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="78"/>
+    </row>
+    <row r="158" ht="17.4" spans="1:6">
+      <c r="A158" s="34"/>
+      <c r="B158" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C158" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="D158" s="79"/>
+      <c r="E158" s="79"/>
+      <c r="F158" s="80"/>
+    </row>
+    <row r="159" ht="18.15" spans="1:6">
+      <c r="A159" s="67"/>
+      <c r="B159" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C134" s="62" t="s">
+      <c r="C159" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="63"/>
-    </row>
-    <row r="135" ht="56" customHeight="1" spans="1:6">
-      <c r="A135" s="70" t="s">
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="74"/>
+    </row>
+    <row r="160" ht="56" customHeight="1" spans="1:6">
+      <c r="A160" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="71" t="s">
+      <c r="B160" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="71"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-    </row>
-    <row r="136" ht="17.4" spans="1:6">
-      <c r="A136" s="8" t="s">
+      <c r="C160" s="82"/>
+      <c r="D160" s="82"/>
+      <c r="E160" s="82"/>
+      <c r="F160" s="82"/>
+    </row>
+    <row r="161" ht="17.4" spans="1:6">
+      <c r="A161" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="37" t="s">
+      <c r="B161" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="39"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="14" t="s">
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="40"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="64"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="64"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="65"/>
-    </row>
-    <row r="147" ht="28" customHeight="1" spans="1:6">
-      <c r="A147" s="8" t="s">
+      <c r="B162" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B170" s="75"/>
+      <c r="C170" s="75"/>
+      <c r="D170" s="75"/>
+      <c r="E170" s="75"/>
+      <c r="F170" s="75"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="75"/>
+      <c r="B171" s="76"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="76"/>
+      <c r="E171" s="76"/>
+      <c r="F171" s="76"/>
+    </row>
+    <row r="172" ht="28" customHeight="1" spans="1:6">
+      <c r="A172" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" ht="28" customHeight="1" spans="1:6">
-      <c r="A148" s="26" t="s">
+      <c r="B172" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" ht="28" customHeight="1" spans="1:6">
+      <c r="A173" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B173" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-    </row>
-    <row r="149" ht="28" customHeight="1" spans="1:6">
-      <c r="A149" s="43" t="s">
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" ht="28" customHeight="1" spans="1:6">
+      <c r="A174" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C149" s="66" t="s">
+      <c r="B174" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D149" s="66"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="67"/>
-    </row>
-    <row r="150" ht="109" customHeight="1" spans="1:6">
-      <c r="A150" s="70" t="s">
+      <c r="D174" s="77"/>
+      <c r="E174" s="77"/>
+      <c r="F174" s="78"/>
+    </row>
+    <row r="175" ht="109" customHeight="1" spans="1:6">
+      <c r="A175" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B150" s="71" t="s">
+      <c r="B175" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C150" s="71"/>
-      <c r="D150" s="71"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-    </row>
-    <row r="151" ht="28" customHeight="1" spans="1:6">
-      <c r="A151" s="8" t="s">
+      <c r="C175" s="82"/>
+      <c r="D175" s="82"/>
+      <c r="E175" s="82"/>
+      <c r="F175" s="82"/>
+    </row>
+    <row r="176" ht="28" customHeight="1" spans="1:6">
+      <c r="A176" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B151" s="37" t="s">
+      <c r="B176" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C151" s="38"/>
-      <c r="D151" s="38"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="39"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="14" t="s">
+      <c r="C176" s="39"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="40"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B152" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
+      <c r="B177" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="14"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="14"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="14"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
+  <mergeCells count="124">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -6379,87 +6973,107 @@
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B65:F65"/>
     <mergeCell ref="C66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="C96:F96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C113:F113"/>
-    <mergeCell ref="C114:F114"/>
-    <mergeCell ref="C115:F115"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
     <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="C132:F132"/>
-    <mergeCell ref="C133:F133"/>
-    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="C121:F121"/>
+    <mergeCell ref="C122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
     <mergeCell ref="B135:F135"/>
     <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="C140:F140"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="C157:F157"/>
+    <mergeCell ref="C158:F158"/>
+    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="A42:A52"/>
     <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A110:A115"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A125:A130"/>
     <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A152:A157"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="A177:A182"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="B14:F19"/>
     <mergeCell ref="A22:F23"/>
     <mergeCell ref="B30:F35"/>
     <mergeCell ref="A38:F39"/>
     <mergeCell ref="B55:F60"/>
+    <mergeCell ref="A87:F88"/>
+    <mergeCell ref="B94:F99"/>
+    <mergeCell ref="B125:F130"/>
+    <mergeCell ref="A133:F134"/>
+    <mergeCell ref="A102:F103"/>
+    <mergeCell ref="B110:F115"/>
+    <mergeCell ref="A117:F118"/>
+    <mergeCell ref="B145:F150"/>
+    <mergeCell ref="A153:F154"/>
+    <mergeCell ref="B162:F167"/>
+    <mergeCell ref="A170:F171"/>
+    <mergeCell ref="B177:F182"/>
     <mergeCell ref="A62:F63"/>
-    <mergeCell ref="B69:F74"/>
-    <mergeCell ref="B100:F105"/>
-    <mergeCell ref="A108:F109"/>
-    <mergeCell ref="A77:F78"/>
-    <mergeCell ref="B85:F90"/>
-    <mergeCell ref="A92:F93"/>
-    <mergeCell ref="B120:F125"/>
-    <mergeCell ref="A128:F129"/>
-    <mergeCell ref="B137:F142"/>
-    <mergeCell ref="A145:F146"/>
-    <mergeCell ref="B152:F157"/>
+    <mergeCell ref="B79:F84"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://47.100.225.183:9000/user/register" tooltip="http://47.95.218.13/user/register"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://47.100.225.183:9000/user/register" tooltip="http://47.100.225.183:9000/user/register"/>
     <hyperlink ref="B24" r:id="rId2" display="http://47.100.225.183:9000/user/login" tooltip="http://47.95.218.13/user/login"/>
     <hyperlink ref="B40" r:id="rId3" display="http://47.100.225.183:9000/user/find" tooltip="http://47.95.218.13/user/find"/>
-    <hyperlink ref="B79" r:id="rId4" display="http://47.100.225.183:9000/user/delete" tooltip="http://47.95.218.13/user/delete"/>
-    <hyperlink ref="B94" r:id="rId5" display="http://47.100.225.183:9000/user/resume" tooltip="http://47.95.218.13/user/resume"/>
-    <hyperlink ref="B110" r:id="rId6" display="http://47.100.225.183:9000/user/updata" tooltip="http://47.95.218.13/user/updata"/>
-    <hyperlink ref="B130" r:id="rId7" display="http://47.100.225.183:9000/user/change" tooltip="http://47.95.218.13/user/change"/>
-    <hyperlink ref="B64" r:id="rId8" display="http://47.100.225.183:9000/goods/gsearch" tooltip="http://47.95.218.13/goods/gsearch"/>
-    <hyperlink ref="B147" r:id="rId9" display="http://47.100.225.183:9000/user/code" tooltip="http://47.95.218.13/user/code"/>
+    <hyperlink ref="B104" r:id="rId4" display="http://47.100.225.183:9000/user/delete" tooltip="http://47.95.218.13/user/delete"/>
+    <hyperlink ref="B119" r:id="rId5" display="http://47.100.225.183:9000/user/resume" tooltip="http://47.95.218.13/user/resume"/>
+    <hyperlink ref="B135" r:id="rId6" display="http://47.100.225.183:9000/user/updata" tooltip="http://47.95.218.13/user/updata"/>
+    <hyperlink ref="B155" r:id="rId7" display="http://47.100.225.183:9000/user/change" tooltip="http://47.95.218.13/user/change"/>
+    <hyperlink ref="B89" r:id="rId8" display="http://47.100.225.183:9000/goods/gsearch" tooltip="http://47.95.218.13/goods/gsearch"/>
+    <hyperlink ref="B172" r:id="rId9" display="http://47.100.225.183:9000/user/code" tooltip="http://47.95.218.13/user/code"/>
+    <hyperlink ref="B64" r:id="rId10" display="http://47.100.225.183:9000/user/num" tooltip="http://47.100.225.183:9000/user/num"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6493,7 +7107,7 @@
     </row>
     <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6514,7 +7128,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -6538,7 +7152,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -6553,7 +7167,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -6565,7 +7179,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -6577,7 +7191,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>

--- a/Online/项目文档/接口API-赵宏程.xlsx
+++ b/Online/项目文档/接口API-赵宏程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统后台账户" sheetId="1" r:id="rId1"/>
@@ -1449,9 +1449,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1508,12 +1508,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1523,7 +1524,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1545,14 +1554,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1565,34 +1598,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1613,13 +1622,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1630,22 +1646,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1707,19 +1707,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,31 +1761,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,103 +1845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,6 +1870,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,15 +2335,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2379,6 +2370,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2390,15 +2399,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2434,10 +2434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2446,137 +2446,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2834,9 +2834,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3166,11 +3163,11 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.37962962962963" customWidth="1"/>
+    <col min="1" max="1" width="9.38333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="40.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="40.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
@@ -3183,7 +3180,7 @@
       <c r="E1" s="83"/>
       <c r="F1" s="83"/>
     </row>
-    <row r="2" ht="15.15" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
@@ -3238,7 +3235,7 @@
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
       <c r="F6" s="78"/>
-      <c r="H6" s="86"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:6">
       <c r="A7" s="67"/>
@@ -3275,7 +3272,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="87"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="14" t="s">
@@ -3371,7 +3368,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" ht="17.4" spans="1:6">
+    <row r="22" ht="18" spans="1:6">
       <c r="A22" s="44" t="s">
         <v>6</v>
       </c>
@@ -3385,7 +3382,7 @@
       <c r="E22" s="77"/>
       <c r="F22" s="78"/>
     </row>
-    <row r="23" ht="17.4" spans="1:6">
+    <row r="23" ht="18" spans="1:6">
       <c r="A23" s="34"/>
       <c r="B23" s="28" t="s">
         <v>9</v>
@@ -3397,7 +3394,7 @@
       <c r="E23" s="79"/>
       <c r="F23" s="80"/>
     </row>
-    <row r="24" ht="18.15" spans="1:6">
+    <row r="24" ht="18.75" spans="1:6">
       <c r="A24" s="67"/>
       <c r="B24" s="25" t="s">
         <v>22</v>
@@ -3524,13 +3521,13 @@
   <sheetPr/>
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="18.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="18.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4078,7 +4075,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18" spans="1:6">
       <c r="A52" s="27" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4087,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18" spans="1:6">
       <c r="A53" s="16" t="s">
         <v>6</v>
       </c>
@@ -4128,7 +4125,7 @@
       <c r="E55" s="18"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" ht="17.4" spans="1:6">
+    <row r="56" ht="18" spans="1:6">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -4140,7 +4137,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" ht="17.4" spans="1:6">
+    <row r="57" ht="17.25" spans="1:6">
       <c r="A57" s="14" t="s">
         <v>13</v>
       </c>
@@ -4204,8 +4201,8 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="65" ht="15.15"/>
-    <row r="66" ht="15.15" spans="1:6">
+    <row r="65" ht="14.25"/>
+    <row r="66" ht="14.25" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -4215,7 +4212,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" ht="15.15" spans="1:6">
+    <row r="67" ht="14.25" spans="1:6">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4235,7 +4232,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" ht="17.4" spans="1:6">
+    <row r="69" ht="18" spans="1:6">
       <c r="A69" s="27" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4244,7 @@
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" ht="17.4" spans="1:6">
+    <row r="70" ht="18" spans="1:6">
       <c r="A70" s="29"/>
       <c r="B70" s="30" t="s">
         <v>33</v>
@@ -4259,7 +4256,7 @@
       <c r="E70" s="71"/>
       <c r="F70" s="72"/>
     </row>
-    <row r="71" ht="17.4" spans="1:6">
+    <row r="71" ht="18" spans="1:6">
       <c r="A71" s="29"/>
       <c r="B71" s="30" t="s">
         <v>35</v>
@@ -4271,7 +4268,7 @@
       <c r="E71" s="71"/>
       <c r="F71" s="72"/>
     </row>
-    <row r="72" ht="17.4" spans="1:6">
+    <row r="72" ht="18" spans="1:6">
       <c r="A72" s="34"/>
       <c r="B72" s="28" t="s">
         <v>73</v>
@@ -4283,7 +4280,7 @@
       <c r="E72" s="65"/>
       <c r="F72" s="66"/>
     </row>
-    <row r="73" ht="17.4" spans="1:6">
+    <row r="73" ht="18" spans="1:6">
       <c r="A73" s="34"/>
       <c r="B73" s="28" t="s">
         <v>75</v>
@@ -4295,7 +4292,7 @@
       <c r="E73" s="65"/>
       <c r="F73" s="66"/>
     </row>
-    <row r="74" ht="17.4" spans="1:6">
+    <row r="74" ht="18" spans="1:6">
       <c r="A74" s="34"/>
       <c r="B74" s="28" t="s">
         <v>77</v>
@@ -4307,7 +4304,7 @@
       <c r="E74" s="65"/>
       <c r="F74" s="66"/>
     </row>
-    <row r="75" ht="17.4" spans="1:6">
+    <row r="75" ht="18" spans="1:6">
       <c r="A75" s="16"/>
       <c r="B75" s="9" t="s">
         <v>79</v>
@@ -4319,7 +4316,7 @@
       <c r="E75" s="18"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" ht="17.4" spans="1:6">
+    <row r="76" ht="18" spans="1:6">
       <c r="A76" s="16"/>
       <c r="B76" s="9" t="s">
         <v>81</v>
@@ -4331,7 +4328,7 @@
       <c r="E76" s="18"/>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" ht="17.4" spans="1:6">
+    <row r="77" ht="18" spans="1:6">
       <c r="A77" s="16"/>
       <c r="B77" s="9" t="s">
         <v>37</v>
@@ -4343,7 +4340,7 @@
       <c r="E77" s="18"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" ht="17.4" spans="1:6">
+    <row r="78" ht="18" spans="1:6">
       <c r="A78" s="16"/>
       <c r="B78" s="9" t="s">
         <v>84</v>
@@ -4355,7 +4352,7 @@
       <c r="E78" s="18"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" ht="17.4" spans="1:6">
+    <row r="79" ht="18" spans="1:6">
       <c r="A79" s="16"/>
       <c r="B79" s="9" t="s">
         <v>47</v>
@@ -4367,7 +4364,7 @@
       <c r="E79" s="18"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" ht="17.4" spans="1:6">
+    <row r="80" ht="18" spans="1:6">
       <c r="A80" s="16"/>
       <c r="B80" s="9" t="s">
         <v>39</v>
@@ -4379,7 +4376,7 @@
       <c r="E80" s="18"/>
       <c r="F80" s="19"/>
     </row>
-    <row r="81" ht="17.4" spans="1:6">
+    <row r="81" ht="18" spans="1:6">
       <c r="A81" s="16"/>
       <c r="B81" s="9" t="s">
         <v>41</v>
@@ -4391,7 +4388,7 @@
       <c r="E81" s="18"/>
       <c r="F81" s="19"/>
     </row>
-    <row r="82" ht="17.4" spans="1:6">
+    <row r="82" ht="18" spans="1:6">
       <c r="A82" s="16"/>
       <c r="B82" s="9" t="s">
         <v>89</v>
@@ -4403,7 +4400,7 @@
       <c r="E82" s="18"/>
       <c r="F82" s="19"/>
     </row>
-    <row r="83" ht="18.15" spans="1:6">
+    <row r="83" ht="18.75" spans="1:6">
       <c r="A83" s="67"/>
       <c r="B83" s="25"/>
       <c r="C83" s="73"/>
@@ -4411,7 +4408,7 @@
       <c r="E83" s="73"/>
       <c r="F83" s="74"/>
     </row>
-    <row r="84" ht="17.4" spans="1:6">
+    <row r="84" ht="18" spans="1:6">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -4487,8 +4484,8 @@
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
     </row>
-    <row r="94" ht="15.15"/>
-    <row r="95" ht="15.15" spans="1:6">
+    <row r="94" ht="14.25"/>
+    <row r="95" ht="14.25" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -4498,7 +4495,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" ht="15.15" spans="1:6">
+    <row r="96" ht="14.25" spans="1:6">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -4518,7 +4515,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" ht="17.4" spans="1:6">
+    <row r="98" ht="18" spans="1:6">
       <c r="A98" s="27" t="s">
         <v>4</v>
       </c>
@@ -4530,7 +4527,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" ht="17.4" spans="1:6">
+    <row r="99" ht="18" spans="1:6">
       <c r="A99" s="16"/>
       <c r="B99" s="9" t="s">
         <v>96</v>
@@ -4542,7 +4539,7 @@
       <c r="E99" s="18"/>
       <c r="F99" s="19"/>
     </row>
-    <row r="100" ht="18.15" spans="1:6">
+    <row r="100" ht="18.75" spans="1:6">
       <c r="A100" s="67"/>
       <c r="B100" s="25"/>
       <c r="C100" s="68" t="s">
@@ -4552,7 +4549,7 @@
       <c r="E100" s="68"/>
       <c r="F100" s="69"/>
     </row>
-    <row r="101" ht="17.4" spans="1:6">
+    <row r="101" ht="18" spans="1:6">
       <c r="A101" s="10" t="s">
         <v>11</v>
       </c>
@@ -4628,8 +4625,8 @@
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" ht="15.15"/>
-    <row r="110" ht="15.15" spans="1:6">
+    <row r="109" ht="14.25"/>
+    <row r="110" ht="14.25" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>101</v>
       </c>
@@ -4639,7 +4636,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="15.15" spans="1:6">
+    <row r="111" ht="14.25" spans="1:6">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -4659,7 +4656,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" ht="17.4" spans="1:6">
+    <row r="113" ht="18" spans="1:6">
       <c r="A113" s="27" t="s">
         <v>4</v>
       </c>
@@ -4671,7 +4668,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" ht="17.4" spans="1:6">
+    <row r="114" ht="18" spans="1:6">
       <c r="A114" s="16"/>
       <c r="B114" s="9" t="s">
         <v>96</v>
@@ -4683,7 +4680,7 @@
       <c r="E114" s="18"/>
       <c r="F114" s="19"/>
     </row>
-    <row r="115" ht="18.15" spans="1:6">
+    <row r="115" ht="18.75" spans="1:6">
       <c r="A115" s="67"/>
       <c r="B115" s="25"/>
       <c r="C115" s="68" t="s">
@@ -4693,7 +4690,7 @@
       <c r="E115" s="68"/>
       <c r="F115" s="69"/>
     </row>
-    <row r="116" ht="17.4" spans="1:6">
+    <row r="116" ht="18" spans="1:6">
       <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
@@ -4769,8 +4766,8 @@
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
     </row>
-    <row r="126" ht="15.15"/>
-    <row r="127" ht="15.15" spans="1:6">
+    <row r="126" ht="14.25"/>
+    <row r="127" ht="14.25" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>106</v>
       </c>
@@ -4780,7 +4777,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="15.15" spans="1:6">
+    <row r="128" ht="14.25" spans="1:6">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -4800,7 +4797,7 @@
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
     </row>
-    <row r="130" ht="17.4" spans="1:6">
+    <row r="130" ht="18" spans="1:6">
       <c r="A130" s="27" t="s">
         <v>4</v>
       </c>
@@ -4812,7 +4809,7 @@
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
     </row>
-    <row r="131" ht="17.4" spans="1:6">
+    <row r="131" ht="18" spans="1:6">
       <c r="A131" s="29"/>
       <c r="B131" s="30" t="s">
         <v>96</v>
@@ -4824,7 +4821,7 @@
       <c r="E131" s="71"/>
       <c r="F131" s="72"/>
     </row>
-    <row r="132" ht="17.4" spans="1:6">
+    <row r="132" ht="18" spans="1:6">
       <c r="A132" s="29"/>
       <c r="B132" s="30" t="s">
         <v>110</v>
@@ -4836,7 +4833,7 @@
       <c r="E132" s="71"/>
       <c r="F132" s="72"/>
     </row>
-    <row r="133" ht="17.4" spans="1:6">
+    <row r="133" ht="18" spans="1:6">
       <c r="A133" s="34"/>
       <c r="B133" s="28" t="s">
         <v>111</v>
@@ -4848,7 +4845,7 @@
       <c r="E133" s="65"/>
       <c r="F133" s="66"/>
     </row>
-    <row r="134" ht="17.4" spans="1:6">
+    <row r="134" ht="18" spans="1:6">
       <c r="A134" s="34"/>
       <c r="B134" s="28" t="s">
         <v>112</v>
@@ -4860,7 +4857,7 @@
       <c r="E134" s="65"/>
       <c r="F134" s="66"/>
     </row>
-    <row r="135" ht="17.4" spans="1:6">
+    <row r="135" ht="18" spans="1:6">
       <c r="A135" s="34"/>
       <c r="B135" s="28" t="s">
         <v>113</v>
@@ -4872,7 +4869,7 @@
       <c r="E135" s="65"/>
       <c r="F135" s="66"/>
     </row>
-    <row r="136" ht="17.4" spans="1:6">
+    <row r="136" ht="18" spans="1:6">
       <c r="A136" s="16"/>
       <c r="B136" s="9" t="s">
         <v>114</v>
@@ -4884,7 +4881,7 @@
       <c r="E136" s="18"/>
       <c r="F136" s="19"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18" spans="1:6">
       <c r="A137" s="16"/>
       <c r="B137" s="9" t="s">
         <v>115</v>
@@ -4896,7 +4893,7 @@
       <c r="E137" s="18"/>
       <c r="F137" s="19"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18" spans="1:6">
       <c r="A138" s="16"/>
       <c r="B138" s="9" t="s">
         <v>116</v>
@@ -4908,7 +4905,7 @@
       <c r="E138" s="18"/>
       <c r="F138" s="19"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18" spans="1:6">
       <c r="A139" s="16"/>
       <c r="B139" s="9" t="s">
         <v>117</v>
@@ -4920,7 +4917,7 @@
       <c r="E139" s="18"/>
       <c r="F139" s="19"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18" spans="1:6">
       <c r="A140" s="16"/>
       <c r="B140" s="9" t="s">
         <v>118</v>
@@ -4932,7 +4929,7 @@
       <c r="E140" s="18"/>
       <c r="F140" s="19"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18" spans="1:6">
       <c r="A141" s="16"/>
       <c r="B141" s="9" t="s">
         <v>119</v>
@@ -4944,7 +4941,7 @@
       <c r="E141" s="18"/>
       <c r="F141" s="19"/>
     </row>
-    <row r="142" ht="17.4" spans="1:6">
+    <row r="142" ht="18" spans="1:6">
       <c r="A142" s="16"/>
       <c r="B142" s="9" t="s">
         <v>120</v>
@@ -4956,7 +4953,7 @@
       <c r="E142" s="18"/>
       <c r="F142" s="19"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18" spans="1:6">
       <c r="A143" s="16"/>
       <c r="B143" s="9" t="s">
         <v>121</v>
@@ -4968,7 +4965,7 @@
       <c r="E143" s="18"/>
       <c r="F143" s="19"/>
     </row>
-    <row r="144" ht="18.15" spans="1:6">
+    <row r="144" ht="18.75" spans="1:6">
       <c r="A144" s="67"/>
       <c r="B144" s="25"/>
       <c r="C144" s="73"/>
@@ -4976,7 +4973,7 @@
       <c r="E144" s="73"/>
       <c r="F144" s="74"/>
     </row>
-    <row r="145" ht="17.4" spans="1:6">
+    <row r="145" ht="18" spans="1:6">
       <c r="A145" s="10" t="s">
         <v>11</v>
       </c>
@@ -5175,7 +5172,7 @@
     <hyperlink ref="B97" r:id="rId3" display="http://47.100.225.183:9000/goods/delete" tooltip="http://47.100.225.183:9000/goods/delete"/>
     <hyperlink ref="B112" r:id="rId4" display="http://47.100.225.183:9000/goods/resume" tooltip="http://47.95.218.13/goods/resume"/>
     <hyperlink ref="B129" r:id="rId5" display="http://47.100.225.183:9000/goods/updata" tooltip="http://47.95.218.13/goods/updata"/>
-    <hyperlink ref="B51" r:id="rId6" display="http://47.100.225.183:9000/goods/gsearch" tooltip="http://47.95.218.13/goods/gsearch"/>
+    <hyperlink ref="B51" r:id="rId6" display="http://47.100.225.183:9000/goods/gsearch" tooltip="http://47.100.225.183:9000/goods/gsearch"/>
     <hyperlink ref="B29" r:id="rId7" display="http://47.100.225.183:9000/goods/num" tooltip="http://47.100.225.183:9000/goods/num"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5188,13 +5185,13 @@
   <sheetPr/>
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:F78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="18.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="18.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="48.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5208,7 +5205,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="15.15" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
@@ -5218,7 +5215,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="15.15" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5250,7 +5247,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="18" spans="1:6">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
         <v>126</v>
@@ -5262,7 +5259,7 @@
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18" spans="1:6">
       <c r="A7" s="34"/>
       <c r="B7" s="28" t="s">
         <v>128</v>
@@ -5274,7 +5271,7 @@
       <c r="E7" s="36"/>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18" spans="1:6">
       <c r="A8" s="34"/>
       <c r="B8" s="28" t="s">
         <v>130</v>
@@ -5286,7 +5283,7 @@
       <c r="E8" s="36"/>
       <c r="F8" s="37"/>
     </row>
-    <row r="9" ht="17.4" spans="1:6">
+    <row r="9" ht="18" spans="1:6">
       <c r="A9" s="34"/>
       <c r="B9" s="28" t="s">
         <v>132</v>
@@ -5298,7 +5295,7 @@
       <c r="E9" s="36"/>
       <c r="F9" s="37"/>
     </row>
-    <row r="10" ht="17.4" spans="1:6">
+    <row r="10" ht="18" spans="1:6">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
         <v>134</v>
@@ -5310,7 +5307,7 @@
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" ht="17.4" spans="1:6">
+    <row r="11" ht="18" spans="1:6">
       <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>136</v>
@@ -5334,7 +5331,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" ht="17.4" spans="1:6">
+    <row r="13" ht="17.25" spans="1:6">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -5398,8 +5395,8 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="21" ht="15.15"/>
-    <row r="22" ht="15.15" spans="1:6">
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>140</v>
       </c>
@@ -5409,7 +5406,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="15.15" spans="1:6">
+    <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5441,7 +5438,7 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" ht="17.4" spans="1:6">
+    <row r="26" ht="18" spans="1:6">
       <c r="A26" s="34"/>
       <c r="B26" s="28" t="s">
         <v>128</v>
@@ -5453,7 +5450,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
     </row>
-    <row r="27" ht="17.4" spans="1:6">
+    <row r="27" ht="18" spans="1:6">
       <c r="A27" s="34"/>
       <c r="B27" s="28" t="s">
         <v>130</v>
@@ -5465,7 +5462,7 @@
       <c r="E27" s="36"/>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" ht="17.4" spans="1:6">
+    <row r="28" ht="18" spans="1:6">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -5477,7 +5474,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" ht="17.4" spans="1:6">
+    <row r="29" ht="17.25" spans="1:6">
       <c r="A29" s="14" t="s">
         <v>13</v>
       </c>
@@ -5583,7 +5580,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" ht="17.4" spans="1:6">
+    <row r="42" ht="18" spans="1:6">
       <c r="A42" s="44" t="s">
         <v>6</v>
       </c>
@@ -5597,7 +5594,7 @@
       <c r="E42" s="46"/>
       <c r="F42" s="47"/>
     </row>
-    <row r="43" ht="17.4" spans="1:6">
+    <row r="43" ht="18" spans="1:6">
       <c r="A43" s="34"/>
       <c r="B43" s="28" t="s">
         <v>147</v>
@@ -5609,7 +5606,7 @@
       <c r="E43" s="36"/>
       <c r="F43" s="37"/>
     </row>
-    <row r="44" ht="17.4" spans="1:6">
+    <row r="44" ht="18" spans="1:6">
       <c r="A44" s="34"/>
       <c r="B44" s="28" t="s">
         <v>149</v>
@@ -5621,7 +5618,7 @@
       <c r="E44" s="36"/>
       <c r="F44" s="37"/>
     </row>
-    <row r="45" ht="17.4" spans="1:6">
+    <row r="45" ht="18" spans="1:6">
       <c r="A45" s="34"/>
       <c r="B45" s="28" t="s">
         <v>132</v>
@@ -5633,7 +5630,7 @@
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
     </row>
-    <row r="46" ht="17.4" spans="1:6">
+    <row r="46" ht="18" spans="1:6">
       <c r="A46" s="34"/>
       <c r="B46" s="28" t="s">
         <v>152</v>
@@ -5645,7 +5642,7 @@
       <c r="E46" s="36"/>
       <c r="F46" s="37"/>
     </row>
-    <row r="47" ht="17.4" spans="1:6">
+    <row r="47" ht="18" spans="1:6">
       <c r="A47" s="34"/>
       <c r="B47" s="28" t="s">
         <v>51</v>
@@ -5657,7 +5654,7 @@
       <c r="E47" s="36"/>
       <c r="F47" s="37"/>
     </row>
-    <row r="48" ht="17.4" spans="1:6">
+    <row r="48" ht="18" spans="1:6">
       <c r="A48" s="16"/>
       <c r="B48" s="9" t="s">
         <v>53</v>
@@ -5669,7 +5666,7 @@
       <c r="E48" s="22"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" ht="17.4" spans="1:6">
+    <row r="49" ht="18" spans="1:6">
       <c r="A49" s="16"/>
       <c r="B49" s="9" t="s">
         <v>49</v>
@@ -5681,7 +5678,7 @@
       <c r="E49" s="22"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" ht="17.4" spans="1:6">
+    <row r="50" ht="18" spans="1:6">
       <c r="A50" s="16"/>
       <c r="B50" s="9" t="s">
         <v>157</v>
@@ -5693,7 +5690,7 @@
       <c r="E50" s="22"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" ht="17.4" spans="1:6">
+    <row r="51" ht="18" spans="1:6">
       <c r="A51" s="16"/>
       <c r="B51" s="9" t="s">
         <v>43</v>
@@ -5705,7 +5702,7 @@
       <c r="E51" s="22"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" ht="17.4" spans="1:6">
+    <row r="52" ht="18" spans="1:6">
       <c r="A52" s="16"/>
       <c r="B52" s="9" t="s">
         <v>45</v>
@@ -5717,7 +5714,7 @@
       <c r="E52" s="22"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" ht="17.4" spans="1:6">
+    <row r="53" ht="18" spans="1:6">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -5729,7 +5726,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" ht="17.4" spans="1:6">
+    <row r="54" ht="17.25" spans="1:6">
       <c r="A54" s="14" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5790,6 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" customFormat="1"/>
     <row r="62" customFormat="1" spans="1:6">
       <c r="A62" s="41" t="s">
         <v>162</v>
@@ -5836,7 +5832,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" customFormat="1" ht="17.4" spans="1:6">
+    <row r="66" customFormat="1" ht="18" spans="1:6">
       <c r="A66" s="44" t="s">
         <v>6</v>
       </c>
@@ -5850,7 +5846,7 @@
       <c r="E66" s="46"/>
       <c r="F66" s="47"/>
     </row>
-    <row r="67" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="67" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A67" s="48"/>
       <c r="B67" s="49" t="s">
         <v>147</v>
@@ -5862,7 +5858,7 @@
       <c r="E67" s="51"/>
       <c r="F67" s="52"/>
     </row>
-    <row r="68" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="68" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A68" s="48"/>
       <c r="B68" s="49" t="s">
         <v>149</v>
@@ -5874,7 +5870,7 @@
       <c r="E68" s="51"/>
       <c r="F68" s="52"/>
     </row>
-    <row r="69" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="69" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A69" s="48"/>
       <c r="B69" s="49" t="s">
         <v>132</v>
@@ -5886,7 +5882,7 @@
       <c r="E69" s="51"/>
       <c r="F69" s="52"/>
     </row>
-    <row r="70" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="70" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A70" s="48"/>
       <c r="B70" s="49" t="s">
         <v>152</v>
@@ -5898,7 +5894,7 @@
       <c r="E70" s="51"/>
       <c r="F70" s="52"/>
     </row>
-    <row r="71" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="71" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A71" s="48"/>
       <c r="B71" s="49" t="s">
         <v>51</v>
@@ -5910,7 +5906,7 @@
       <c r="E71" s="51"/>
       <c r="F71" s="52"/>
     </row>
-    <row r="72" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="72" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A72" s="53"/>
       <c r="B72" s="54" t="s">
         <v>53</v>
@@ -5922,7 +5918,7 @@
       <c r="E72" s="56"/>
       <c r="F72" s="57"/>
     </row>
-    <row r="73" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="73" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A73" s="53"/>
       <c r="B73" s="54" t="s">
         <v>49</v>
@@ -5934,7 +5930,7 @@
       <c r="E73" s="56"/>
       <c r="F73" s="57"/>
     </row>
-    <row r="74" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="74" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A74" s="53"/>
       <c r="B74" s="54" t="s">
         <v>157</v>
@@ -5946,7 +5942,7 @@
       <c r="E74" s="56"/>
       <c r="F74" s="57"/>
     </row>
-    <row r="75" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="75" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A75" s="53"/>
       <c r="B75" s="54" t="s">
         <v>43</v>
@@ -5958,7 +5954,7 @@
       <c r="E75" s="56"/>
       <c r="F75" s="57"/>
     </row>
-    <row r="76" s="26" customFormat="1" ht="17.4" spans="1:6">
+    <row r="76" s="26" customFormat="1" ht="18" spans="1:6">
       <c r="A76" s="53"/>
       <c r="B76" s="54" t="s">
         <v>45</v>
@@ -5970,7 +5966,7 @@
       <c r="E76" s="56"/>
       <c r="F76" s="57"/>
     </row>
-    <row r="77" customFormat="1" ht="17.4" spans="1:6">
+    <row r="77" customFormat="1" ht="18" spans="1:6">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -5982,7 +5978,7 @@
       <c r="E77" s="12"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" customFormat="1" ht="17.4" spans="1:6">
+    <row r="78" customFormat="1" ht="17.25" spans="1:6">
       <c r="A78" s="14" t="s">
         <v>13</v>
       </c>
@@ -6046,7 +6042,6 @@
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" customFormat="1"/>
     <row r="87" spans="1:6">
       <c r="A87" s="58" t="s">
         <v>176</v>
@@ -6103,7 +6098,7 @@
       <c r="E91" s="65"/>
       <c r="F91" s="66"/>
     </row>
-    <row r="92" ht="17.4" spans="1:6">
+    <row r="92" ht="18" spans="1:6">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -6115,7 +6110,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" ht="17.4" spans="1:6">
+    <row r="93" ht="17.25" spans="1:6">
       <c r="A93" s="14" t="s">
         <v>13</v>
       </c>
@@ -6179,8 +6174,8 @@
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="101" ht="15.15"/>
-    <row r="102" ht="15.15" spans="1:6">
+    <row r="101" ht="14.25"/>
+    <row r="102" ht="14.25" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>180</v>
       </c>
@@ -6190,7 +6185,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" ht="15.15" spans="1:6">
+    <row r="103" ht="14.25" spans="1:6">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -6222,7 +6217,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" ht="17.4" spans="1:6">
+    <row r="106" ht="18" spans="1:6">
       <c r="A106" s="16"/>
       <c r="B106" s="9" t="s">
         <v>128</v>
@@ -6234,7 +6229,7 @@
       <c r="E106" s="18"/>
       <c r="F106" s="19"/>
     </row>
-    <row r="107" ht="18.15" spans="1:6">
+    <row r="107" ht="18.75" spans="1:6">
       <c r="A107" s="67"/>
       <c r="B107" s="25"/>
       <c r="C107" s="68" t="s">
@@ -6244,7 +6239,7 @@
       <c r="E107" s="68"/>
       <c r="F107" s="69"/>
     </row>
-    <row r="108" ht="17.4" spans="1:6">
+    <row r="108" ht="18" spans="1:6">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
@@ -6256,7 +6251,7 @@
       <c r="E108" s="12"/>
       <c r="F108" s="13"/>
     </row>
-    <row r="109" ht="17.4" spans="1:6">
+    <row r="109" ht="17.25" spans="1:6">
       <c r="A109" s="14" t="s">
         <v>13</v>
       </c>
@@ -6320,8 +6315,8 @@
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" ht="15.15"/>
-    <row r="117" ht="15.15" spans="1:6">
+    <row r="116" ht="14.25"/>
+    <row r="117" ht="14.25" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>186</v>
       </c>
@@ -6331,7 +6326,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="15.15" spans="1:6">
+    <row r="118" ht="14.25" spans="1:6">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -6363,7 +6358,7 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" ht="17.4" spans="1:6">
+    <row r="121" ht="18" spans="1:6">
       <c r="A121" s="16"/>
       <c r="B121" s="9" t="s">
         <v>128</v>
@@ -6375,7 +6370,7 @@
       <c r="E121" s="18"/>
       <c r="F121" s="19"/>
     </row>
-    <row r="122" ht="18.15" spans="1:6">
+    <row r="122" ht="18.75" spans="1:6">
       <c r="A122" s="67"/>
       <c r="B122" s="25"/>
       <c r="C122" s="68" t="s">
@@ -6385,7 +6380,7 @@
       <c r="E122" s="68"/>
       <c r="F122" s="69"/>
     </row>
-    <row r="123" ht="17.4" spans="1:6">
+    <row r="123" ht="18" spans="1:6">
       <c r="A123" s="10" t="s">
         <v>11</v>
       </c>
@@ -6397,7 +6392,7 @@
       <c r="E123" s="12"/>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" ht="17.4" spans="1:6">
+    <row r="124" ht="17.25" spans="1:6">
       <c r="A124" s="14" t="s">
         <v>13</v>
       </c>
@@ -6461,8 +6456,8 @@
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
     </row>
-    <row r="132" ht="15.15"/>
-    <row r="133" ht="15.15" spans="1:6">
+    <row r="132" ht="14.25"/>
+    <row r="133" ht="14.25" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>190</v>
       </c>
@@ -6472,7 +6467,7 @@
       <c r="E133" s="3"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="15.15" spans="1:6">
+    <row r="134" ht="14.25" spans="1:6">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -6504,7 +6499,7 @@
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
     </row>
-    <row r="137" ht="17.4" spans="1:6">
+    <row r="137" ht="18" spans="1:6">
       <c r="A137" s="29"/>
       <c r="B137" s="30" t="s">
         <v>128</v>
@@ -6516,7 +6511,7 @@
       <c r="E137" s="71"/>
       <c r="F137" s="72"/>
     </row>
-    <row r="138" ht="17.4" spans="1:6">
+    <row r="138" ht="18" spans="1:6">
       <c r="A138" s="29"/>
       <c r="B138" s="30" t="s">
         <v>126</v>
@@ -6528,7 +6523,7 @@
       <c r="E138" s="71"/>
       <c r="F138" s="72"/>
     </row>
-    <row r="139" ht="17.4" spans="1:6">
+    <row r="139" ht="18" spans="1:6">
       <c r="A139" s="34"/>
       <c r="B139" s="28" t="s">
         <v>194</v>
@@ -6540,7 +6535,7 @@
       <c r="E139" s="65"/>
       <c r="F139" s="66"/>
     </row>
-    <row r="140" ht="17.4" spans="1:6">
+    <row r="140" ht="18" spans="1:6">
       <c r="A140" s="34"/>
       <c r="B140" s="28" t="s">
         <v>196</v>
@@ -6552,7 +6547,7 @@
       <c r="E140" s="65"/>
       <c r="F140" s="66"/>
     </row>
-    <row r="141" ht="17.4" spans="1:6">
+    <row r="141" ht="18" spans="1:6">
       <c r="A141" s="34"/>
       <c r="B141" s="28" t="s">
         <v>198</v>
@@ -6564,7 +6559,7 @@
       <c r="E141" s="65"/>
       <c r="F141" s="66"/>
     </row>
-    <row r="142" ht="18.15" spans="1:6">
+    <row r="142" ht="18.75" spans="1:6">
       <c r="A142" s="67"/>
       <c r="B142" s="25"/>
       <c r="C142" s="73"/>
@@ -6572,7 +6567,7 @@
       <c r="E142" s="73"/>
       <c r="F142" s="74"/>
     </row>
-    <row r="143" ht="17.4" spans="1:6">
+    <row r="143" ht="18" spans="1:6">
       <c r="A143" s="10" t="s">
         <v>11</v>
       </c>
@@ -6584,7 +6579,7 @@
       <c r="E143" s="12"/>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" ht="17.4" spans="1:6">
+    <row r="144" ht="17.25" spans="1:6">
       <c r="A144" s="14" t="s">
         <v>13</v>
       </c>
@@ -6690,7 +6685,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
     </row>
-    <row r="157" ht="17.4" spans="1:6">
+    <row r="157" ht="18" spans="1:6">
       <c r="A157" s="44" t="s">
         <v>6</v>
       </c>
@@ -6704,7 +6699,7 @@
       <c r="E157" s="77"/>
       <c r="F157" s="78"/>
     </row>
-    <row r="158" ht="17.4" spans="1:6">
+    <row r="158" ht="18" spans="1:6">
       <c r="A158" s="34"/>
       <c r="B158" s="28" t="s">
         <v>202</v>
@@ -6716,7 +6711,7 @@
       <c r="E158" s="79"/>
       <c r="F158" s="80"/>
     </row>
-    <row r="159" ht="18.15" spans="1:6">
+    <row r="159" ht="18.75" spans="1:6">
       <c r="A159" s="67"/>
       <c r="B159" s="25" t="s">
         <v>22</v>
@@ -6740,7 +6735,7 @@
       <c r="E160" s="82"/>
       <c r="F160" s="82"/>
     </row>
-    <row r="161" ht="17.4" spans="1:6">
+    <row r="161" ht="18" spans="1:6">
       <c r="A161" s="8" t="s">
         <v>11</v>
       </c>
@@ -7089,10 +7084,10 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="38.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="38.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:6">
@@ -7105,7 +7100,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="15.15" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>208</v>
       </c>
@@ -7115,7 +7110,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="15.15" spans="1:6">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7147,7 +7142,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" ht="17.4" spans="1:6">
+    <row r="6" ht="17.25" spans="1:6">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -7159,7 +7154,7 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" ht="17.4" spans="1:6">
+    <row r="7" ht="18" spans="1:6">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -7173,7 +7168,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" ht="17.4" spans="1:6">
+    <row r="8" ht="18" spans="1:6">
       <c r="A8" s="20"/>
       <c r="B8" s="9" t="s">
         <v>43</v>
@@ -7185,7 +7180,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" ht="18.15" spans="1:6">
+    <row r="9" ht="18.75" spans="1:6">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>45</v>
